--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gdf15-Gfral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Gfral</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,43 +525,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.47424606494119</v>
+        <v>1.595593</v>
       </c>
       <c r="H2">
-        <v>1.47424606494119</v>
+        <v>4.786779</v>
       </c>
       <c r="I2">
-        <v>0.04420107453254192</v>
+        <v>0.04211707711903992</v>
       </c>
       <c r="J2">
-        <v>0.04420107453254192</v>
+        <v>0.04211707711903992</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.580366183171904</v>
+        <v>0.6050859999999999</v>
       </c>
       <c r="N2">
-        <v>0.580366183171904</v>
+        <v>1.815258</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.8556025617661174</v>
+        <v>0.9654709859979999</v>
       </c>
       <c r="R2">
-        <v>0.8556025617661174</v>
+        <v>8.689238873981999</v>
       </c>
       <c r="S2">
-        <v>0.04420107453254192</v>
+        <v>0.04211707711903992</v>
       </c>
       <c r="T2">
-        <v>0.04420107453254192</v>
+        <v>0.04211707711903992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,43 +587,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>15.561865364208</v>
+        <v>0.5295143333333333</v>
       </c>
       <c r="H3">
-        <v>15.561865364208</v>
+        <v>1.588543</v>
       </c>
       <c r="I3">
-        <v>0.4665782647730383</v>
+        <v>0.0139769953945881</v>
       </c>
       <c r="J3">
-        <v>0.4665782647730383</v>
+        <v>0.0139769953945881</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.580366183171904</v>
+        <v>0.6050859999999999</v>
       </c>
       <c r="N3">
-        <v>0.580366183171904</v>
+        <v>1.815258</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>9.031580404460449</v>
+        <v>0.3204017098993333</v>
       </c>
       <c r="R3">
-        <v>9.031580404460449</v>
+        <v>2.883615389094</v>
       </c>
       <c r="S3">
-        <v>0.4665782647730383</v>
+        <v>0.0139769953945881</v>
       </c>
       <c r="T3">
-        <v>0.4665782647730383</v>
+        <v>0.0139769953945881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,43 +649,43 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.4007271865439</v>
+        <v>15.63002466666667</v>
       </c>
       <c r="H4">
-        <v>15.4007271865439</v>
+        <v>46.890074</v>
       </c>
       <c r="I4">
-        <v>0.4617469948986616</v>
+        <v>0.4125682139859577</v>
       </c>
       <c r="J4">
-        <v>0.4617469948986616</v>
+        <v>0.4125682139859577</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.580366183171904</v>
+        <v>0.6050859999999999</v>
       </c>
       <c r="N4">
-        <v>0.580366183171904</v>
+        <v>1.815258</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>8.938061255326259</v>
+        <v>9.457509105454664</v>
       </c>
       <c r="R4">
-        <v>8.938061255326259</v>
+        <v>85.11758194909198</v>
       </c>
       <c r="S4">
-        <v>0.4617469948986616</v>
+        <v>0.4125682139859577</v>
       </c>
       <c r="T4">
-        <v>0.4617469948986616</v>
+        <v>0.4125682139859577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,123 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>19.20541533333333</v>
+      </c>
+      <c r="H5">
+        <v>57.616246</v>
+      </c>
+      <c r="I5">
+        <v>0.506943787480386</v>
+      </c>
+      <c r="J5">
+        <v>0.506943787480386</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6050859999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.815258</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>11.62092794238533</v>
+      </c>
+      <c r="R5">
+        <v>104.588351481468</v>
+      </c>
+      <c r="S5">
+        <v>0.506943787480386</v>
+      </c>
+      <c r="T5">
+        <v>0.506943787480386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.916333915346032</v>
-      </c>
-      <c r="H5">
-        <v>0.916333915346032</v>
-      </c>
-      <c r="I5">
-        <v>0.02747366579575822</v>
-      </c>
-      <c r="J5">
-        <v>0.02747366579575822</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.580366183171904</v>
-      </c>
-      <c r="N5">
-        <v>0.580366183171904</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.5318092169603432</v>
-      </c>
-      <c r="R5">
-        <v>0.5318092169603432</v>
-      </c>
-      <c r="S5">
-        <v>0.02747366579575822</v>
-      </c>
-      <c r="T5">
-        <v>0.02747366579575822</v>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.9241566666666666</v>
+      </c>
+      <c r="H6">
+        <v>2.77247</v>
+      </c>
+      <c r="I6">
+        <v>0.0243939260200282</v>
+      </c>
+      <c r="J6">
+        <v>0.0243939260200282</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6050859999999999</v>
+      </c>
+      <c r="N6">
+        <v>1.815258</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.5591942608066666</v>
+      </c>
+      <c r="R6">
+        <v>5.032748347259999</v>
+      </c>
+      <c r="S6">
+        <v>0.0243939260200282</v>
+      </c>
+      <c r="T6">
+        <v>0.0243939260200282</v>
       </c>
     </row>
   </sheetData>
